--- a/2017/C语言课程设计/提交报告/1604031班c语言课程设计作业统计情况.xlsx
+++ b/2017/C语言课程设计/提交报告/1604031班c语言课程设计作业统计情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="114">
   <si>
     <t>1604031班c语言课程设计交作业情况</t>
   </si>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次收作业的情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改情况</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,8 +405,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,50 +442,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,63 +472,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,38 +861,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.95" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="27.95" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" s="20" customFormat="1">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1">
+      <c r="D2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1">
       <c r="A3" s="6">
         <v>16040310001</v>
       </c>
@@ -878,8 +912,10 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="8" customFormat="1">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1">
       <c r="A4" s="6">
         <v>16040310002</v>
       </c>
@@ -889,8 +925,10 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>16040310003</v>
       </c>
@@ -900,8 +938,10 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>16040310004</v>
       </c>
@@ -911,8 +951,10 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>16040310005</v>
       </c>
@@ -922,8 +964,10 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="11" customFormat="1">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1">
       <c r="A8" s="9">
         <v>16040310006</v>
       </c>
@@ -933,11 +977,12 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>16040310007</v>
       </c>
@@ -947,8 +992,10 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="11" customFormat="1">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1">
       <c r="A10" s="9">
         <v>16040310008</v>
       </c>
@@ -958,11 +1005,12 @@
       <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>16040310009</v>
       </c>
@@ -972,8 +1020,10 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>16040310010</v>
       </c>
@@ -983,8 +1033,10 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="11" customFormat="1">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" s="11" customFormat="1">
       <c r="A13" s="9">
         <v>16040310011</v>
       </c>
@@ -994,11 +1046,12 @@
       <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>16040310012</v>
       </c>
@@ -1008,8 +1061,10 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>16040310013</v>
       </c>
@@ -1019,8 +1074,10 @@
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>16040310014</v>
       </c>
@@ -1030,8 +1087,10 @@
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>16040310015</v>
       </c>
@@ -1041,8 +1100,10 @@
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="11" customFormat="1">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1">
       <c r="A18" s="9">
         <v>16040310016</v>
       </c>
@@ -1052,11 +1113,12 @@
       <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>16040310017</v>
       </c>
@@ -1066,8 +1128,10 @@
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>16040310018</v>
       </c>
@@ -1077,8 +1141,10 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>16040310019</v>
       </c>
@@ -1088,8 +1154,10 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="8" customFormat="1">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1">
       <c r="A22" s="6">
         <v>16040310020</v>
       </c>
@@ -1099,8 +1167,10 @@
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>16040310021</v>
       </c>
@@ -1110,8 +1180,10 @@
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>16040310022</v>
       </c>
@@ -1121,8 +1193,10 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>16040310023</v>
       </c>
@@ -1132,8 +1206,10 @@
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>16040310024</v>
       </c>
@@ -1143,8 +1219,10 @@
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="11" customFormat="1">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1">
       <c r="A27" s="9">
         <v>16040310025</v>
       </c>
@@ -1154,11 +1232,12 @@
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>16040310026</v>
       </c>
@@ -1168,8 +1247,10 @@
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="11" customFormat="1">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" s="11" customFormat="1">
       <c r="A29" s="9">
         <v>16040310027</v>
       </c>
@@ -1179,11 +1260,12 @@
       <c r="C29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>16040310028</v>
       </c>
@@ -1193,8 +1275,10 @@
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="8" customFormat="1">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1">
       <c r="A31" s="6">
         <v>16040310029</v>
       </c>
@@ -1204,8 +1288,10 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="11" customFormat="1">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1">
       <c r="A32" s="9">
         <v>16040310030</v>
       </c>
@@ -1215,11 +1301,12 @@
       <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>16040310031</v>
       </c>
@@ -1229,8 +1316,10 @@
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>16040310032</v>
       </c>
@@ -1240,8 +1329,10 @@
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>16040310033</v>
       </c>
@@ -1251,8 +1342,10 @@
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>16040310034</v>
       </c>
@@ -1262,8 +1355,10 @@
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>16040310035</v>
       </c>
@@ -1273,8 +1368,10 @@
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="11" customFormat="1">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" s="11" customFormat="1">
       <c r="A38" s="9">
         <v>16040310036</v>
       </c>
@@ -1284,11 +1381,12 @@
       <c r="C38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>16040310037</v>
       </c>
@@ -1298,8 +1396,10 @@
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>16040310038</v>
       </c>
@@ -1309,8 +1409,10 @@
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>16040310039</v>
       </c>
@@ -1320,8 +1422,10 @@
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>16040310040</v>
       </c>
@@ -1331,8 +1435,10 @@
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>16040310041</v>
       </c>
@@ -1342,8 +1448,10 @@
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="11" customFormat="1">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" s="11" customFormat="1">
       <c r="A44" s="9">
         <v>16040310042</v>
       </c>
@@ -1353,11 +1461,12 @@
       <c r="C44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="11" customFormat="1">
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" s="11" customFormat="1">
       <c r="A45" s="9">
         <v>16040310043</v>
       </c>
@@ -1367,11 +1476,12 @@
       <c r="C45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="16" customFormat="1">
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" s="13" customFormat="1">
       <c r="A46" s="2">
         <v>16040310044</v>
       </c>
@@ -1381,8 +1491,10 @@
       <c r="C46" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>16040310045</v>
       </c>
@@ -1392,8 +1504,10 @@
       <c r="C47" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>16040310046</v>
       </c>
@@ -1403,8 +1517,10 @@
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="11" customFormat="1">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" s="11" customFormat="1">
       <c r="A49" s="9">
         <v>16040310047</v>
       </c>
@@ -1414,11 +1530,12 @@
       <c r="C49" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>16040310048</v>
       </c>
@@ -1428,8 +1545,10 @@
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>16040310049</v>
       </c>
@@ -1439,8 +1558,10 @@
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>16040310050</v>
       </c>
@@ -1450,8 +1571,10 @@
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>16040310051</v>
       </c>
@@ -1461,8 +1584,10 @@
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>16040310052</v>
       </c>
@@ -1472,8 +1597,10 @@
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>16040310053</v>
       </c>
@@ -1483,8 +1610,10 @@
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>16040310054</v>
       </c>
@@ -1494,8 +1623,10 @@
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="11" customFormat="1">
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" s="11" customFormat="1">
       <c r="A57" s="9">
         <v>16040310055</v>
       </c>
@@ -1505,11 +1636,12 @@
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>16040310056</v>
       </c>
@@ -1519,8 +1651,10 @@
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="11" customFormat="1">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" s="11" customFormat="1">
       <c r="A59" s="9">
         <v>16040310057</v>
       </c>
@@ -1530,11 +1664,12 @@
       <c r="C59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>16040310058</v>
       </c>
@@ -1544,8 +1679,10 @@
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>16040310059</v>
       </c>
@@ -1555,8 +1692,10 @@
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>16040310060</v>
       </c>
@@ -1566,8 +1705,10 @@
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>16040310061</v>
       </c>
@@ -1577,8 +1718,10 @@
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>16040310062</v>
       </c>
@@ -1588,8 +1731,10 @@
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="11" customFormat="1">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" s="11" customFormat="1">
       <c r="A65" s="9">
         <v>16040310063</v>
       </c>
@@ -1599,11 +1744,12 @@
       <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>16040310064</v>
       </c>
@@ -1613,8 +1759,10 @@
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="11" customFormat="1">
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" s="11" customFormat="1">
       <c r="A67" s="9">
         <v>16040310065</v>
       </c>
@@ -1624,11 +1772,12 @@
       <c r="C67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="11" customFormat="1">
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5" s="11" customFormat="1">
       <c r="A68" s="9">
         <v>16040310066</v>
       </c>
@@ -1638,11 +1787,12 @@
       <c r="C68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>16040310067</v>
       </c>
@@ -1652,8 +1802,10 @@
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>16040310068</v>
       </c>
@@ -1663,8 +1815,10 @@
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>16040310069</v>
       </c>
@@ -1674,8 +1828,10 @@
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>16040310070</v>
       </c>
@@ -1685,8 +1841,10 @@
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>16040310071</v>
       </c>
@@ -1696,8 +1854,10 @@
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>16040310072</v>
       </c>
@@ -1707,8 +1867,10 @@
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>16040310073</v>
       </c>
@@ -1718,8 +1880,10 @@
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="11" customFormat="1">
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" s="11" customFormat="1">
       <c r="A76" s="9">
         <v>16040310074</v>
       </c>
@@ -1729,11 +1893,12 @@
       <c r="C76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>16040310075</v>
       </c>
@@ -1743,8 +1908,10 @@
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>16040310076</v>
       </c>
@@ -1754,8 +1921,10 @@
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>16040310077</v>
       </c>
@@ -1765,8 +1934,10 @@
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>16040310078</v>
       </c>
@@ -1776,8 +1947,10 @@
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>16040310079</v>
       </c>
@@ -1787,8 +1960,10 @@
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="11" customFormat="1">
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="1:5" s="11" customFormat="1">
       <c r="A82" s="9">
         <v>16040310080</v>
       </c>
@@ -1798,11 +1973,12 @@
       <c r="C82" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>16040310081</v>
       </c>
@@ -1812,8 +1988,10 @@
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="11" customFormat="1">
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:5" s="11" customFormat="1">
       <c r="A84" s="9">
         <v>16040310082</v>
       </c>
@@ -1823,11 +2001,12 @@
       <c r="C84" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <v>16040310083</v>
       </c>
@@ -1837,8 +2016,10 @@
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>16040310084</v>
       </c>
@@ -1848,8 +2029,10 @@
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>16040310085</v>
       </c>
@@ -1859,8 +2042,10 @@
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" s="11" customFormat="1">
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" spans="1:5" s="11" customFormat="1">
       <c r="A88" s="9">
         <v>16040310086</v>
       </c>
@@ -1870,11 +2055,12 @@
       <c r="C88" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>16040310087</v>
       </c>
@@ -1884,8 +2070,10 @@
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" s="11" customFormat="1">
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" s="11" customFormat="1">
       <c r="A90" s="9">
         <v>16040310088</v>
       </c>
@@ -1895,11 +2083,12 @@
       <c r="C90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="5">
         <v>16040310089</v>
       </c>
@@ -1909,8 +2098,10 @@
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="11" customFormat="1">
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" s="11" customFormat="1">
       <c r="A92" s="12">
         <v>16040310090</v>
       </c>
@@ -1920,11 +2111,12 @@
       <c r="C92" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="16"/>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>16040310091</v>
       </c>
@@ -1934,8 +2126,10 @@
       <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" s="8" customFormat="1">
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="1:5" s="8" customFormat="1">
       <c r="A94" s="6">
         <v>16040310092</v>
       </c>
@@ -1945,8 +2139,10 @@
       <c r="C94" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" s="8" customFormat="1">
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" s="8" customFormat="1">
       <c r="A95" s="6">
         <v>16040310093</v>
       </c>
@@ -1956,8 +2152,10 @@
       <c r="C95" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" s="8" customFormat="1">
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" s="8" customFormat="1">
       <c r="A96" s="6">
         <v>16040310094</v>
       </c>
@@ -1967,8 +2165,10 @@
       <c r="C96" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" s="11" customFormat="1">
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:5" s="11" customFormat="1">
       <c r="A97" s="9">
         <v>16040310095</v>
       </c>
@@ -1978,11 +2178,12 @@
       <c r="C97" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="16"/>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>101</v>
       </c>
@@ -1990,7 +2191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>103</v>
       </c>
@@ -1998,13 +2199,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <v>16040310001</v>
       </c>
@@ -2020,7 +2221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <v>16040310002</v>
       </c>
@@ -2028,7 +2229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <v>16040310020</v>
       </c>
@@ -2036,7 +2237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <v>16040310029</v>
       </c>
@@ -2044,7 +2245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <v>16040310092</v>
       </c>
@@ -2052,7 +2253,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <v>16040310093</v>
       </c>
@@ -2060,7 +2261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <v>16040310094</v>
       </c>
@@ -2070,11 +2271,11 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
